--- a/outputs-r202/p__Verrucomicrobiota.xlsx
+++ b/outputs-r202/p__Verrucomicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>c__Kiritimatiellae</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Kiritimatiellae</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>c__Kiritimatiellae</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Kiritimatiellae</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>c__Kiritimatiellae</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Kiritimatiellae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>c__Kiritimatiellae</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Kiritimatiellae</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>c__Kiritimatiellae</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Kiritimatiellae</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>c__Lentisphaeria</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1853,6 +2143,11 @@
         <v>0.9467462817049039</v>
       </c>
       <c r="F59" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>c__Lentisphaeria</t>
         </is>

--- a/outputs-r202/p__Verrucomicrobiota.xlsx
+++ b/outputs-r202/p__Verrucomicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,49 +474,49 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG027.fasta</t>
+          <t>RUG038.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007755042831213061</v>
+        <v>2.387375279564055e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001440838757632045</v>
+        <v>0.9999997609093136</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9908041184111549</v>
+        <v>3.531583410258629e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9908041184111549</v>
+        <v>0.9999997609093136</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG038.fasta</t>
+          <t>RUG111.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.902129669870765e-07</v>
+        <v>0.006291243110407531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999997095016772</v>
+        <v>0.9937087505868635</v>
       </c>
       <c r="D3" t="n">
-        <v>2.85355794330197e-10</v>
+        <v>6.302728924736829e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999997095016772</v>
+        <v>0.9937087505868635</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,20 +532,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG095.fasta</t>
+          <t>RUG118.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03262301237740858</v>
+        <v>1.108799755825525e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9673769875756729</v>
+        <v>0.9999998888034118</v>
       </c>
       <c r="D4" t="n">
-        <v>4.691848165940688e-11</v>
+        <v>3.166125455421659e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9673769875756729</v>
+        <v>0.9999998888034118</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -561,20 +561,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG111.fasta</t>
+          <t>RUG147.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.873641171424233e-05</v>
+        <v>0.0005778217001753982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999712572399618</v>
+        <v>0.999422177406474</v>
       </c>
       <c r="D5" t="n">
-        <v>6.348324001195291e-09</v>
+        <v>8.933506361234488e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999712572399618</v>
+        <v>0.999422177406474</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,20 +590,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG118.fasta</t>
+          <t>RUG199.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.46253439234944e-08</v>
+        <v>0.1652373680081599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999050772217</v>
+        <v>0.8347625295769213</v>
       </c>
       <c r="D6" t="n">
-        <v>2.97434210974481e-10</v>
+        <v>1.024149188223649e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999050772217</v>
+        <v>0.8347625295769213</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG147.fasta</t>
+          <t>RUG363.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.51774790202631e-05</v>
+        <v>0.03296182340718628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999448222624648</v>
+        <v>0.9670381765523762</v>
       </c>
       <c r="D7" t="n">
-        <v>2.585149162497307e-10</v>
+        <v>4.043759860757075e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999448222624648</v>
+        <v>0.9670381765523762</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG199.fasta</t>
+          <t>RUG398.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002651353284809132</v>
+        <v>0.000216785664758628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9973484171205332</v>
+        <v>0.9997781628112983</v>
       </c>
       <c r="D8" t="n">
-        <v>2.295946576807848e-07</v>
+        <v>5.051523943015393e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9973484171205332</v>
+        <v>0.9997781628112983</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG227.fasta</t>
+          <t>RUG524.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005904742910975461</v>
+        <v>2.05828033625047e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994094275825448</v>
+        <v>0.9999997938650141</v>
       </c>
       <c r="D9" t="n">
-        <v>9.812635763688602e-08</v>
+        <v>3.069522574387888e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994094275825448</v>
+        <v>0.9999997938650141</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -706,20 +706,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG268.fasta</t>
+          <t>RUG531.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220420342251062e-14</v>
+        <v>3.680021789450704e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.538859584675641</v>
+        <v>0.9957553414442549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4611404153243367</v>
+        <v>0.004244654875723251</v>
       </c>
       <c r="E10" t="n">
-        <v>0.538859584675641</v>
+        <v>0.9957553414442549</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,27 +728,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria(reject)</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG303.fasta</t>
+          <t>RUG554.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.158535029258229e-10</v>
+        <v>1.144953358238275e-07</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9041184469413655</v>
+        <v>0.9999677279500399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09588155294278113</v>
+        <v>3.215755462425096e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9041184469413655</v>
+        <v>0.9999677279500399</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG308.fasta</t>
+          <t>RUG555.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.711096995762973e-11</v>
+        <v>6.774490191007906e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>0.998988764840404</v>
+        <v>0.9999999668059428</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001011235092485044</v>
+        <v>2.641956697884307e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>0.998988764840404</v>
+        <v>0.9999999668059428</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,49 +793,49 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG363.fasta</t>
+          <t>RUG572.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06072926618470795</v>
+        <v>0.9999999999997742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9392707338118551</v>
+        <v>2.220446071092976e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>3.437081333074386e-12</v>
+        <v>2.03643514898512e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9392707338118551</v>
+        <v>0.9999999999997742</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG398.fasta</t>
+          <t>RUG612.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001531030256387764</v>
+        <v>2.160119782666868e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9998444296261405</v>
+        <v>0.9999783856336479</v>
       </c>
       <c r="D14" t="n">
-        <v>2.467348220848489e-06</v>
+        <v>1.316852549077662e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998444296261405</v>
+        <v>0.9999783856336479</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG409.fasta</t>
+          <t>RUG613.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.998934632264099e-11</v>
+        <v>3.180682190762785e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9985613808354933</v>
+        <v>0.9999681572563601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001438619084517367</v>
+        <v>3.152467542077326e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9985613808354933</v>
+        <v>0.9999681572563601</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -880,49 +880,49 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG439.fasta</t>
+          <t>RUG632.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002373491204205875</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9864380327324592</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01118847606333482</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9864380327324592</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG453.fasta</t>
+          <t>RUG656.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01002396228151383</v>
+        <v>4.514394751001531e-09</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9563982961271499</v>
+        <v>0.989877609743208</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03357774159133627</v>
+        <v>0.01012238574239714</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9563982961271499</v>
+        <v>0.989877609743208</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG484.fasta</t>
+          <t>RUG663.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.614866689575888e-11</v>
+        <v>1.830070129673656e-08</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999139316978176</v>
+        <v>0.9999999649678348</v>
       </c>
       <c r="D18" t="n">
-        <v>8.606823603366493e-05</v>
+        <v>1.673146400320649e-08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999139316978176</v>
+        <v>0.9999999649678348</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,78 +967,78 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG499.fasta</t>
+          <t>RUG673.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.627544802533449e-08</v>
+        <v>0.9999999999917871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999278870254791</v>
+        <v>2.220446049487556e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>7.203669907287627e-05</v>
+        <v>8.190670844913095e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999278870254791</v>
+        <v>0.9999999999917871</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Kiritimatiellae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG508.fasta</t>
+          <t>RUG683.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9948255859186481</v>
+        <v>0.002746492286936839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001218911992931122</v>
+        <v>0.9972410979011491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003955502088420675</v>
+        <v>1.240981191411575e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9948255859186481</v>
+        <v>0.9972410979011491</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>c__Kiritimatiellae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>c__Kiritimatiellae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG524.fasta</t>
+          <t>RUG688.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.224471909242123e-07</v>
+        <v>2.183576704390155e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0.999999777376093</v>
+        <v>0.9999028148732321</v>
       </c>
       <c r="D21" t="n">
-        <v>1.767162546091334e-10</v>
+        <v>9.500155006345702e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999999777376093</v>
+        <v>0.9999028148732321</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG531.fasta</t>
+          <t>RUG692.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.320398794875219e-09</v>
+        <v>3.41807434070348e-12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9914884193410413</v>
+        <v>0.7177908370601433</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008511579338560032</v>
+        <v>0.2822091629364387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9914884193410413</v>
+        <v>0.7177908370601433</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Lentisphaeria(reject)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG534.fasta</t>
+          <t>RUG706.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.847036834632677e-09</v>
+        <v>0.000100039914498082</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9998659982191193</v>
+        <v>0.999897067945147</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001339989338439963</v>
+        <v>2.892140354949972e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998659982191193</v>
+        <v>0.999897067945147</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG554.fasta</t>
+          <t>RUG805.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.663737713144149e-08</v>
+        <v>0.001076257403542843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9998638932997731</v>
+        <v>0.9989237410943665</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001360900628497709</v>
+        <v>1.502090533423667e-09</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998638932997731</v>
+        <v>0.9989237410943665</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG555.fasta</t>
+          <t>RUG822.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.833847355458008e-08</v>
+        <v>8.644037925136089e-08</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999999594641946</v>
+        <v>0.99998507342196</v>
       </c>
       <c r="D25" t="n">
-        <v>2.197331792547106e-09</v>
+        <v>1.484013766075918e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999594641946</v>
+        <v>0.99998507342196</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,107 +1170,107 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG572.fasta</t>
+          <t>RUG850.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999999999968722</v>
+        <v>3.649735292957625e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>2.220446178387147e-14</v>
+        <v>0.9960325897217461</v>
       </c>
       <c r="D26" t="n">
-        <v>3.105619076654841e-12</v>
+        <v>0.003967406628518583</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999968722</v>
+        <v>0.9960325897217461</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>c__Kiritimatiellae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>c__Kiritimatiellae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG579.fasta</t>
+          <t>hRUG856.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009979295584561969</v>
+        <v>0.000695256146899306</v>
       </c>
       <c r="C27" t="n">
-        <v>1.906552181138739e-08</v>
+        <v>0.9993047335154458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9900206853499162</v>
+        <v>1.033765501110304e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9900206853499162</v>
+        <v>0.9993047335154458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG596.fasta</t>
+          <t>hRUG866.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.220275992280485e-14</v>
+        <v>2.13594651890432e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3342712017140345</v>
+        <v>0.9999997849349916</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6657287982859432</v>
+        <v>1.470356419155057e-09</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6657287982859432</v>
+        <v>0.9999997849349916</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae(reject)</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG607.fasta</t>
+          <t>hRUG882.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.220397619726933e-14</v>
+        <v>0.001006041904464483</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5741554381186661</v>
+        <v>0.9989878027669888</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4258445618813118</v>
+        <v>6.155328546695786e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5741554381186661</v>
+        <v>0.9989878027669888</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,27 +1279,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria(reject)</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG612.fasta</t>
+          <t>hRUG886.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.104166132828178e-06</v>
+        <v>2.383589657008778e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999978620637946</v>
+        <v>0.9986519102909471</v>
       </c>
       <c r="D30" t="n">
-        <v>3.37700725777042e-08</v>
+        <v>0.00134785135008721</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999978620637946</v>
+        <v>0.9986519102909471</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1307,847 +1307,6 @@
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>RUG613.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>7.917151163108171e-09</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9999254574840776</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7.453459877127165e-05</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9999254574840776</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>RUG627.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5032692455925669</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.4967307544074109</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2.220443106273749e-14</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5032692455925669</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>RUG632.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>RUG635.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>9.170263560869797e-12</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9659855572031512</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.03401444278767865</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9659855572031512</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>RUG645.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.1838316363539331</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.402369783685151e-07</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8161679234090885</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.8161679234090885</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>RUG646.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>9.05053442362461e-11</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.490887166340939</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5091128335685555</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5091128335685555</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>RUG656.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2.518493944278556e-09</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.9933566157883241</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.006643381693181769</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9933566157883241</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>RUG663.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1.364486674939947e-09</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.9999999583029082</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.033260498094254e-08</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9999999583029082</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>RUG673.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9999999999951436</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.220446052744158e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.834251823138149e-12</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9999999999951436</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>c__Kiritimatiellae</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>RUG677.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0002068166659068146</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.9997929340750098</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.49259083303169e-07</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.9997929340750098</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>RUG683.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.02812037303412044</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.9718795597425035</v>
-      </c>
-      <c r="D41" t="n">
-        <v>6.722337600748262e-08</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.9718795597425035</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>RUG688.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>9.799165594755226e-07</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.999990960380407</v>
-      </c>
-      <c r="D42" t="n">
-        <v>8.059703033454489e-06</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.999990960380407</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>RUG692.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.934234360914693e-07</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.810348997206796</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.1896505093697679</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.810348997206796</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>RUG706.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.0008078226380138672</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.9991911746828279</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.002679158312421e-06</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.9991911746828279</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>RUG740.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.002087922428616492</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.9979120774006807</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.707026228946419e-10</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.9979120774006807</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>RUG743.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.006489943515657264</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.9928619537449057</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0006481027394370856</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.9928619537449057</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>RUG763.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.001638415681186432</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.9983615819699555</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.34885817612723e-09</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.9983615819699555</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>RUG807.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.001337350407462272</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0013370189440149</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.9973256306485229</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9973256306485229</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>RUG822.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4.883911636417239e-08</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.999925622578828</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7.432858205567349e-05</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.999925622578828</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>RUG830.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>5.583765922684278e-10</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5158415490837545</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.484158450357869</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5158415490837545</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>RUG850.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1.317745186371216e-08</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.995270303561723</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.004729683260825249</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.995270303561723</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>hRUG853.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>8.630105285950194e-06</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9999911055559507</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.643387635027433e-07</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9999911055559507</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>hRUG855.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>7.605313179787777e-09</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.9999997771578693</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.152368175202699e-07</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.9999997771578693</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>hRUG856.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.002831258044224382</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.99716874190986</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.591578228468021e-11</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.99716874190986</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>hRUG866.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>7.72896611047041e-08</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.9999999183790473</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.33129175273246e-09</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9999999183790473</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>hRUG875.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1.504998169478711e-07</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.9993367384730418</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.0006631110271412245</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9993367384730418</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>hRUG882.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.0002283907675434276</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.9997709233378962</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6.858945603206038e-07</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.9997709233378962</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>hRUG886.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5.908272357698424e-07</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9997690725398218</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.000230336632942382</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9997690725398218</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>hRUG896.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2.789121770527628e-09</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9467462817049039</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.05325371550597423</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.9467462817049039</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>c__Lentisphaeria</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
         <is>
           <t>c__Lentisphaeria</t>
         </is>
